--- a/src/test/resources/ExcelfileData.xlsx
+++ b/src/test/resources/ExcelfileData.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>docname</t>
   </si>
@@ -195,6 +195,78 @@
   </si>
   <si>
     <t>452doct@gmail.com</t>
+  </si>
+  <si>
+    <t>703doct123456</t>
+  </si>
+  <si>
+    <t>7031000</t>
+  </si>
+  <si>
+    <t>703Bangalore</t>
+  </si>
+  <si>
+    <t>703Mohan</t>
+  </si>
+  <si>
+    <t>7039090901234</t>
+  </si>
+  <si>
+    <t>703doct@gmail.com</t>
+  </si>
+  <si>
+    <t>643doct123456</t>
+  </si>
+  <si>
+    <t>6431000</t>
+  </si>
+  <si>
+    <t>643Bangalore</t>
+  </si>
+  <si>
+    <t>643Mohan</t>
+  </si>
+  <si>
+    <t>6439090901234</t>
+  </si>
+  <si>
+    <t>643doct@gmail.com</t>
+  </si>
+  <si>
+    <t>311doct123456</t>
+  </si>
+  <si>
+    <t>3111000</t>
+  </si>
+  <si>
+    <t>311Bangalore</t>
+  </si>
+  <si>
+    <t>311Mohan</t>
+  </si>
+  <si>
+    <t>3119090901234</t>
+  </si>
+  <si>
+    <t>311doct@gmail.com</t>
+  </si>
+  <si>
+    <t>721doct123456</t>
+  </si>
+  <si>
+    <t>7211000</t>
+  </si>
+  <si>
+    <t>721Bangalore</t>
+  </si>
+  <si>
+    <t>721Mohan</t>
+  </si>
+  <si>
+    <t>7219090901234</t>
+  </si>
+  <si>
+    <t>721doct@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -745,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
@@ -753,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -769,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -777,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -785,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -793,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
